--- a/mosip_master/xlsx/reg_working_nonworking.xlsx
+++ b/mosip_master/xlsx/reg_working_nonworking.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Madagascar\MDG_Master_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chith\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ABC8E4-999D-4C8D-AC89-182C97BB8B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F43A0AA-E842-4E6B-8015-7C48A9F13E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EB4F85D4-4ADE-4E41-A13D-4C2FEE70C5A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="6">
   <si>
     <t>lang_code</t>
   </si>
@@ -42,31 +42,37 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>fra</t>
+    <t>eng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -91,6 +97,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -153,46 +174,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF9A9A9A"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF9A9A9A"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -501,159 +512,669 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3FAD7A-C81C-4B03-85AB-99273E0D3FF8}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="5" width="8.453125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
         <v>10000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>101</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="D2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="b">
+      <c r="E2" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
         <v>10000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>102</v>
       </c>
-      <c r="D3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="b">
+      <c r="D3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
         <v>10000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>103</v>
       </c>
-      <c r="D4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="b">
+      <c r="D4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
         <v>10000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>104</v>
       </c>
-      <c r="D5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="b">
+      <c r="D5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
         <v>10000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>105</v>
       </c>
-      <c r="D6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="b">
+      <c r="D6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
         <v>10000</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>106</v>
       </c>
-      <c r="D7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="b">
+      <c r="D7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
         <v>10000</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>107</v>
       </c>
-      <c r="D8" s="7" t="b">
+      <c r="D8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="E8" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9">
+        <v>10001</v>
+      </c>
+      <c r="C9" s="9">
+        <v>101</v>
+      </c>
+      <c r="D9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9">
+        <v>10001</v>
+      </c>
+      <c r="C10" s="9">
+        <v>102</v>
+      </c>
+      <c r="D10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10001</v>
+      </c>
+      <c r="C11" s="9">
+        <v>103</v>
+      </c>
+      <c r="D11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10001</v>
+      </c>
+      <c r="C12" s="9">
+        <v>104</v>
+      </c>
+      <c r="D12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9">
+        <v>10001</v>
+      </c>
+      <c r="C13" s="9">
+        <v>105</v>
+      </c>
+      <c r="D13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9">
+        <v>10001</v>
+      </c>
+      <c r="C14" s="9">
+        <v>106</v>
+      </c>
+      <c r="D14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9">
+        <v>10001</v>
+      </c>
+      <c r="C15" s="9">
+        <v>107</v>
+      </c>
+      <c r="D15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="9">
+        <v>10002</v>
+      </c>
+      <c r="C16" s="9">
+        <v>101</v>
+      </c>
+      <c r="D16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="9">
+        <v>10002</v>
+      </c>
+      <c r="C17" s="9">
+        <v>102</v>
+      </c>
+      <c r="D17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="9">
+        <v>10002</v>
+      </c>
+      <c r="C18" s="9">
+        <v>103</v>
+      </c>
+      <c r="D18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9">
+        <v>10002</v>
+      </c>
+      <c r="C19" s="9">
+        <v>104</v>
+      </c>
+      <c r="D19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="9">
+        <v>10002</v>
+      </c>
+      <c r="C20" s="9">
+        <v>105</v>
+      </c>
+      <c r="D20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="9">
+        <v>10002</v>
+      </c>
+      <c r="C21" s="9">
+        <v>106</v>
+      </c>
+      <c r="D21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="9">
+        <v>10002</v>
+      </c>
+      <c r="C22" s="9">
+        <v>107</v>
+      </c>
+      <c r="D22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="9">
+        <v>10003</v>
+      </c>
+      <c r="C23" s="9">
+        <v>101</v>
+      </c>
+      <c r="D23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="9">
+        <v>10003</v>
+      </c>
+      <c r="C24" s="9">
+        <v>102</v>
+      </c>
+      <c r="D24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="9">
+        <v>10003</v>
+      </c>
+      <c r="C25" s="9">
+        <v>103</v>
+      </c>
+      <c r="D25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="9">
+        <v>10003</v>
+      </c>
+      <c r="C26" s="9">
+        <v>104</v>
+      </c>
+      <c r="D26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="9">
+        <v>10003</v>
+      </c>
+      <c r="C27" s="9">
+        <v>105</v>
+      </c>
+      <c r="D27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="9">
+        <v>10003</v>
+      </c>
+      <c r="C28" s="9">
+        <v>106</v>
+      </c>
+      <c r="D28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="9">
+        <v>10003</v>
+      </c>
+      <c r="C29" s="9">
+        <v>107</v>
+      </c>
+      <c r="D29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="9">
+        <v>10004</v>
+      </c>
+      <c r="C30" s="9">
+        <v>101</v>
+      </c>
+      <c r="D30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="9">
+        <v>10004</v>
+      </c>
+      <c r="C31" s="9">
+        <v>102</v>
+      </c>
+      <c r="D31" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="9">
+        <v>10004</v>
+      </c>
+      <c r="C32" s="9">
+        <v>103</v>
+      </c>
+      <c r="D32" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="9">
+        <v>10004</v>
+      </c>
+      <c r="C33" s="9">
+        <v>104</v>
+      </c>
+      <c r="D33" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="9">
+        <v>10004</v>
+      </c>
+      <c r="C34" s="9">
+        <v>105</v>
+      </c>
+      <c r="D34" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="9">
+        <v>10004</v>
+      </c>
+      <c r="C35" s="9">
+        <v>106</v>
+      </c>
+      <c r="D35" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="9">
+        <v>10004</v>
+      </c>
+      <c r="C36" s="9">
+        <v>107</v>
+      </c>
+      <c r="D36" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D77" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>